--- a/data/trans_camb/P5_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,25</t>
+          <t>-5,54; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 6,67</t>
+          <t>-3,84; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,01</t>
+          <t>-3,42; 4,71</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 15,66</t>
+          <t>-12,47; 16,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 18,15</t>
+          <t>-9,15; 16,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 12,99</t>
+          <t>-8,05; 12,33</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,21</t>
+          <t>-7,88; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,04</t>
+          <t>-4,36; 7,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,39</t>
+          <t>-4,23; 4,52</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 17,33</t>
+          <t>-16,62; 14,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 24,72</t>
+          <t>-11,45; 24,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 14,38</t>
+          <t>-10,17; 12,15</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 13,4</t>
+          <t>-11,05; 16,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 6,11</t>
+          <t>-14,04; 8,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 5,54</t>
+          <t>-8,78; 9,18</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 41,12</t>
+          <t>-24,84; 52,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 19,02</t>
+          <t>-32,27; 24,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 15,4</t>
+          <t>-20,8; 26,3</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,69</t>
+          <t>-4,36; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 4,37</t>
+          <t>-2,74; 4,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,52</t>
+          <t>-2,32; 3,3</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 11,65</t>
+          <t>-9,7; 10,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 12,37</t>
+          <t>-6,96; 12,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 9,14</t>
+          <t>-5,77; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.3396786871867896</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.187983578661389</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7811585291257861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 6,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 6,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 4,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.863261661915162</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.820846984915359</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.357571565284603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.49254496013703</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.336369892208051</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.864275063390239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 16,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 16,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 12,33</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.008134367703438738</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.03063245969497209</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01942954717538306</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1295706473920377</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.0969134119726011</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07925997689312653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 6,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 7,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 4,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.165220428597821</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1722223854101766</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1293281993475959</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,72%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.703064113086789</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.3387956031016</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1625369959072864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 14,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 24,38</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,17; 12,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.385122771245339</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.501430169638828</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.611458092902231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.839144115768527</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.450102167280242</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.212158875701753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 16,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 8,04</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 9,18</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03810437058696976</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.03883222303752298</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0041103594775973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1812975150466749</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1209039344965261</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1126609941356519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 52,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-32,27; 24,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-20,8; 26,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1396135282263719</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2399975561766011</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1143093436798939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.9775233315132081</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.693550500124028</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.820921362343286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 4,36</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 4,43</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 3,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.71290761904442</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-16.36352365878527</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.66013475734393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.60282185784087</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.201661934510248</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.826240809702647</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 10,8</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 12,57</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 8,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.02530534610746019</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1252132852995015</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.04783807271902742</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3011558259405184</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3806389425725881</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2576340595584349</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.4360194670411464</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1570221845782164</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.206132755114708</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.4063856801602539</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5964931277881613</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1066421448072619</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.045878565198951</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.04200778856917</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.745396094914246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.14731935941589</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.289737961620424</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.056820961786512</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.009549607493642365</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.01614159178131397</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.002686891458433504</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1147865709229566</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.07869584830906158</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06670139008763992</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1001357395973428</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1181731635610253</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07862877676626021</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
